--- a/Code/Results/Cases/Case_4_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.0655361877019</v>
+        <v>9.387601030044342</v>
       </c>
       <c r="C2">
-        <v>8.168470830655933</v>
+        <v>6.137134154901638</v>
       </c>
       <c r="D2">
-        <v>7.175007026510006</v>
+        <v>5.975149884727422</v>
       </c>
       <c r="E2">
-        <v>29.62873963525747</v>
+        <v>16.49042890569262</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.70115921872334</v>
+        <v>26.37899438348488</v>
       </c>
       <c r="H2">
-        <v>8.476531720622642</v>
+        <v>13.59947067343654</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.60878055623551</v>
+        <v>8.534746551802261</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.33474696360416</v>
+        <v>17.61626620208107</v>
       </c>
       <c r="O2">
-        <v>14.0752772965316</v>
+        <v>20.39876267414844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15126570553678</v>
+        <v>9.046875586347332</v>
       </c>
       <c r="C3">
-        <v>7.792711109126735</v>
+        <v>5.974529650032757</v>
       </c>
       <c r="D3">
-        <v>6.680123338307832</v>
+        <v>5.854373674938505</v>
       </c>
       <c r="E3">
-        <v>27.49215851329681</v>
+        <v>15.55648342679545</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.98026579070817</v>
+        <v>26.34056623700892</v>
       </c>
       <c r="H3">
-        <v>8.484527709176302</v>
+        <v>13.63902358627923</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.88937286174941</v>
+        <v>8.290465960405923</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.54318351825615</v>
+        <v>17.6764094635205</v>
       </c>
       <c r="O3">
-        <v>13.92837796871561</v>
+        <v>20.44519499119439</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.55800419020896</v>
+        <v>8.832643403211399</v>
       </c>
       <c r="C4">
-        <v>7.55272337072731</v>
+        <v>5.871489701444482</v>
       </c>
       <c r="D4">
-        <v>6.359111894489407</v>
+        <v>5.780693619828576</v>
       </c>
       <c r="E4">
-        <v>26.11610189766369</v>
+        <v>14.95817113337863</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.55553722513161</v>
+        <v>26.32653548527147</v>
       </c>
       <c r="H4">
-        <v>8.495853650144449</v>
+        <v>13.66569628805197</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.42530774236178</v>
+        <v>8.13815724101206</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.67359004991802</v>
+        <v>17.7150116354277</v>
       </c>
       <c r="O4">
-        <v>13.85170081669861</v>
+        <v>20.47862416110296</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.30819552324921</v>
+        <v>8.744219215591205</v>
       </c>
       <c r="C5">
-        <v>7.452658733830532</v>
+        <v>5.828732981768979</v>
       </c>
       <c r="D5">
-        <v>6.225422289958393</v>
+        <v>5.75083538619954</v>
       </c>
       <c r="E5">
-        <v>25.53892374006421</v>
+        <v>14.70837106189489</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.38709327514827</v>
+        <v>26.32322260302507</v>
       </c>
       <c r="H5">
-        <v>8.502016583512727</v>
+        <v>13.67716512111848</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.23062607677818</v>
+        <v>8.075603316382059</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.72737215342516</v>
+        <v>17.7311646316885</v>
       </c>
       <c r="O5">
-        <v>13.82374902476597</v>
+        <v>20.49348005485504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26622808938762</v>
+        <v>8.729473011169109</v>
       </c>
       <c r="C6">
-        <v>7.435908227416968</v>
+        <v>5.821588084152005</v>
       </c>
       <c r="D6">
-        <v>6.206101740349824</v>
+        <v>5.745888920126692</v>
       </c>
       <c r="E6">
-        <v>25.44208377933747</v>
+        <v>14.66653952453227</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.35940702089232</v>
+        <v>26.32281768034569</v>
       </c>
       <c r="H6">
-        <v>8.503131496097177</v>
+        <v>13.67910569742263</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.19796460648579</v>
+        <v>8.065189810899914</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.73634216493475</v>
+        <v>17.7338723702928</v>
       </c>
       <c r="O6">
-        <v>13.81930343577239</v>
+        <v>20.49602123173506</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.55466780991968</v>
+        <v>8.831455233979636</v>
       </c>
       <c r="C7">
-        <v>7.551382952403558</v>
+        <v>5.870916123573141</v>
       </c>
       <c r="D7">
-        <v>6.357306707666445</v>
+        <v>5.780290202552083</v>
       </c>
       <c r="E7">
-        <v>26.10838473537029</v>
+        <v>14.95482607164587</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.55324658866058</v>
+        <v>26.32648107230253</v>
       </c>
       <c r="H7">
-        <v>8.495930585976867</v>
+        <v>13.66584853446636</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.42270467879078</v>
+        <v>8.137315456586187</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.6743127423001</v>
+        <v>17.71522776872179</v>
       </c>
       <c r="O7">
-        <v>13.8513106526728</v>
+        <v>20.4788195248665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.75689566824398</v>
+        <v>9.271242241606782</v>
       </c>
       <c r="C8">
-        <v>8.040866671137261</v>
+        <v>6.081753978112168</v>
       </c>
       <c r="D8">
-        <v>7.007910361613273</v>
+        <v>5.933435254004691</v>
       </c>
       <c r="E8">
-        <v>28.90519276658546</v>
+        <v>16.17371166815139</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.44896262063026</v>
+        <v>26.36375998841913</v>
       </c>
       <c r="H8">
-        <v>8.477916988371032</v>
+        <v>13.61261263854785</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.36538956692125</v>
+        <v>8.451055935566448</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.40613135979824</v>
+        <v>17.63665699288009</v>
       </c>
       <c r="O8">
-        <v>14.02175966310343</v>
+        <v>20.41374927134245</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.86309019906735</v>
+        <v>10.08828167396873</v>
       </c>
       <c r="C9">
-        <v>8.92507957421669</v>
+        <v>6.468309155665016</v>
       </c>
       <c r="D9">
-        <v>8.14921256758538</v>
+        <v>6.235512026630915</v>
       </c>
       <c r="E9">
-        <v>33.89411709503086</v>
+        <v>18.44066520877717</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.34144523180974</v>
+        <v>26.51263334769786</v>
       </c>
       <c r="H9">
-        <v>8.496514798113571</v>
+        <v>13.52719060672823</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.03550666634498</v>
+        <v>9.048931511905135</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.89799286840189</v>
+        <v>17.49579869830934</v>
       </c>
       <c r="O9">
-        <v>14.46758781730709</v>
+        <v>20.32534071682669</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.26011050411763</v>
+        <v>10.6544369669269</v>
       </c>
       <c r="C10">
-        <v>9.526618522599748</v>
+        <v>6.734098729559121</v>
       </c>
       <c r="D10">
-        <v>8.907944337817383</v>
+        <v>6.455897845087441</v>
       </c>
       <c r="E10">
-        <v>37.27794040331793</v>
+        <v>20.07755669194932</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.80718138733729</v>
+        <v>26.66785291661464</v>
       </c>
       <c r="H10">
-        <v>8.547266290792997</v>
+        <v>13.47604238890276</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.15326385907239</v>
+        <v>9.600766863175583</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.53325305899919</v>
+        <v>17.40027826761627</v>
       </c>
       <c r="O10">
-        <v>14.86855345633511</v>
+        <v>20.2844819668715</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86372593728497</v>
+        <v>10.90346728911329</v>
       </c>
       <c r="C11">
-        <v>9.789635902684822</v>
+        <v>6.850729474976704</v>
       </c>
       <c r="D11">
-        <v>9.236295115587968</v>
+        <v>6.55529938777506</v>
       </c>
       <c r="E11">
-        <v>38.76124768671779</v>
+        <v>20.78000746192793</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.48906107416273</v>
+        <v>26.74828532983003</v>
       </c>
       <c r="H11">
-        <v>8.57933871018844</v>
+        <v>13.4553041698097</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.63819837639269</v>
+        <v>9.839937131234198</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.36864166963074</v>
+        <v>17.35853442758631</v>
       </c>
       <c r="O11">
-        <v>15.06793650432506</v>
+        <v>20.27116259530068</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.08777931515133</v>
+        <v>10.99646568254752</v>
       </c>
       <c r="C12">
-        <v>9.887701773785835</v>
+        <v>6.894255205835051</v>
       </c>
       <c r="D12">
-        <v>9.358260618051601</v>
+        <v>6.592776948309719</v>
       </c>
       <c r="E12">
-        <v>39.31534913502263</v>
+        <v>21.03997782133113</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.74936944062221</v>
+        <v>26.78013948943381</v>
       </c>
       <c r="H12">
-        <v>8.592854149167403</v>
+        <v>13.44781558584727</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.81847254866358</v>
+        <v>9.928768486639933</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.30644632333826</v>
+        <v>17.3429714212514</v>
       </c>
       <c r="O12">
-        <v>15.14595788836278</v>
+        <v>20.26687870789882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.03972547695118</v>
+        <v>10.97649596553517</v>
       </c>
       <c r="C13">
-        <v>9.866649704107438</v>
+        <v>6.884909981869767</v>
       </c>
       <c r="D13">
-        <v>9.33209804818431</v>
+        <v>6.584713390519238</v>
       </c>
       <c r="E13">
-        <v>39.19634342449972</v>
+        <v>20.98425632962147</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.69321506619161</v>
+        <v>26.77321732082226</v>
       </c>
       <c r="H13">
-        <v>8.589881149497209</v>
+        <v>13.44941216128589</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.77979621463952</v>
+        <v>9.909714771982628</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.31983583424865</v>
+        <v>17.3463123397026</v>
       </c>
       <c r="O13">
-        <v>15.12904132331085</v>
+        <v>20.26776748998471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88224919739233</v>
+        <v>10.91114487513704</v>
       </c>
       <c r="C14">
-        <v>9.797734563699311</v>
+        <v>6.85432331778761</v>
       </c>
       <c r="D14">
-        <v>9.246376617145916</v>
+        <v>6.558386195238636</v>
       </c>
       <c r="E14">
-        <v>38.80698335559323</v>
+        <v>20.80151609290564</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.51043513307213</v>
+        <v>26.75087811292178</v>
       </c>
       <c r="H14">
-        <v>8.580422716529943</v>
+        <v>13.45468076926255</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.65309680247452</v>
+        <v>9.84728031786754</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.3635223244292</v>
+        <v>17.35724915710647</v>
       </c>
       <c r="O14">
-        <v>15.07430444176181</v>
+        <v>20.27079491594441</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.78520344118569</v>
+        <v>10.87094344692001</v>
       </c>
       <c r="C15">
-        <v>9.755322397795139</v>
+        <v>6.835504093832909</v>
       </c>
       <c r="D15">
-        <v>9.193561909230027</v>
+        <v>6.542237540588395</v>
       </c>
       <c r="E15">
-        <v>38.56751444748716</v>
+        <v>20.68879778224404</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.39874828003039</v>
+        <v>26.73737599230311</v>
       </c>
       <c r="H15">
-        <v>8.574809957607158</v>
+        <v>13.45795543976603</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.57505309152981</v>
+        <v>9.808810332780874</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.39029818276554</v>
+        <v>17.36398007495749</v>
       </c>
       <c r="O15">
-        <v>15.04110688139879</v>
+        <v>20.27274832421904</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.22002631478833</v>
+        <v>10.63798386095073</v>
       </c>
       <c r="C16">
-        <v>9.509215254064793</v>
+        <v>6.72638838792023</v>
       </c>
       <c r="D16">
-        <v>8.886151325202446</v>
+        <v>6.44938099826297</v>
       </c>
       <c r="E16">
-        <v>37.179913918297</v>
+        <v>20.03080393792604</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.76291564311097</v>
+        <v>26.66279279067518</v>
       </c>
       <c r="H16">
-        <v>8.545357741549564</v>
+        <v>13.47744864753702</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.12110047967305</v>
+        <v>9.584895008184899</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.544033083161</v>
+        <v>17.40304060530785</v>
       </c>
       <c r="O16">
-        <v>14.85587168577417</v>
+        <v>20.28545862925721</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.86518271818371</v>
+        <v>10.49282969190743</v>
       </c>
       <c r="C17">
-        <v>9.355508429388907</v>
+        <v>6.658335385580188</v>
       </c>
       <c r="D17">
-        <v>8.693291220157409</v>
+        <v>6.392168131441444</v>
       </c>
       <c r="E17">
-        <v>36.31463269647306</v>
+        <v>19.61636631829482</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.37665781564727</v>
+        <v>26.6195434394749</v>
       </c>
       <c r="H17">
-        <v>8.529646282755801</v>
+        <v>13.49005551629083</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.83660085046514</v>
+        <v>9.444467814059509</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.63864664633964</v>
+        <v>17.42743976535724</v>
       </c>
       <c r="O17">
-        <v>14.74664114553168</v>
+        <v>20.29460695536805</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6580796665779</v>
+        <v>10.40854329206466</v>
       </c>
       <c r="C18">
-        <v>9.266099902021498</v>
+        <v>6.618791716837282</v>
       </c>
       <c r="D18">
-        <v>8.580779248631032</v>
+        <v>6.359182815451395</v>
       </c>
       <c r="E18">
-        <v>35.81164371798113</v>
+        <v>19.37402069004431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.15591750202054</v>
+        <v>26.5955932289918</v>
       </c>
       <c r="H18">
-        <v>8.521450437141647</v>
+        <v>13.49754468272275</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.67074645366896</v>
+        <v>9.362582760433996</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.6931924150235</v>
+        <v>17.44163443943886</v>
       </c>
       <c r="O18">
-        <v>14.68540862313592</v>
+        <v>20.30036451013368</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58743992823326</v>
+        <v>10.3798709687226</v>
       </c>
       <c r="C19">
-        <v>9.235656192847676</v>
+        <v>6.605334762182577</v>
       </c>
       <c r="D19">
-        <v>8.542411338884879</v>
+        <v>6.348002446486273</v>
       </c>
       <c r="E19">
-        <v>35.64041640038616</v>
+        <v>19.29128341282431</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.08142623451831</v>
+        <v>26.58764353437136</v>
       </c>
       <c r="H19">
-        <v>8.518817543921861</v>
+        <v>13.50012124230221</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.61420951530141</v>
+        <v>9.334667427266368</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.7116838314531</v>
+        <v>17.44646818921292</v>
       </c>
       <c r="O19">
-        <v>14.66494771802394</v>
+        <v>20.3023989729598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.90326713141229</v>
+        <v>10.50836475243058</v>
       </c>
       <c r="C20">
-        <v>9.371974389812747</v>
+        <v>6.665621471312296</v>
       </c>
       <c r="D20">
-        <v>8.713985141655918</v>
+        <v>6.398266914565749</v>
       </c>
       <c r="E20">
-        <v>36.40728892735503</v>
+        <v>19.66089476621191</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.41762880334312</v>
+        <v>26.62405171207135</v>
       </c>
       <c r="H20">
-        <v>8.531231195542144</v>
+        <v>13.48868885248745</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.86711570072731</v>
+        <v>9.459532176786775</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.62856211448191</v>
+        <v>17.42482578733873</v>
       </c>
       <c r="O20">
-        <v>14.75810338348664</v>
+        <v>20.29358178072542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.92862600312177</v>
+        <v>10.93037604634622</v>
       </c>
       <c r="C21">
-        <v>9.818018214804075</v>
+        <v>6.863324910343989</v>
       </c>
       <c r="D21">
-        <v>9.271619158191708</v>
+        <v>6.5661238868044</v>
       </c>
       <c r="E21">
-        <v>38.92155006773548</v>
+        <v>20.8553547899133</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.56406561729304</v>
+        <v>26.75740193220605</v>
       </c>
       <c r="H21">
-        <v>8.583163066195121</v>
+        <v>13.45312335186449</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.69040243273052</v>
+        <v>9.865666202170214</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.35068717352234</v>
+        <v>17.35403012356668</v>
       </c>
       <c r="O21">
-        <v>15.09031300793441</v>
+        <v>20.26988504759822</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.57242961793008</v>
+        <v>11.19855434678827</v>
       </c>
       <c r="C22">
-        <v>10.10060153996444</v>
+        <v>6.988796574896819</v>
       </c>
       <c r="D22">
-        <v>9.622249953687838</v>
+        <v>6.674856952235745</v>
       </c>
       <c r="E22">
-        <v>40.52074573901769</v>
+        <v>21.60085650105215</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.32553006039303</v>
+        <v>26.8526823480772</v>
       </c>
       <c r="H22">
-        <v>8.625128270755001</v>
+        <v>13.43200435055242</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.20890179260475</v>
+        <v>10.12096143296773</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.16986624191215</v>
+        <v>17.30918550468537</v>
       </c>
       <c r="O22">
-        <v>15.32215112948463</v>
+        <v>20.25882780811433</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.23120580123843</v>
+        <v>11.05614436491192</v>
       </c>
       <c r="C23">
-        <v>9.950598144096707</v>
+        <v>6.922179600218602</v>
       </c>
       <c r="D23">
-        <v>9.436361332334261</v>
+        <v>6.616925851153852</v>
       </c>
       <c r="E23">
-        <v>39.67108800648224</v>
+        <v>21.20617336672747</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.91802249725878</v>
+        <v>26.8010917457984</v>
       </c>
       <c r="H23">
-        <v>8.601970105417625</v>
+        <v>13.44308125230065</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.9339484289161</v>
+        <v>9.985642100297323</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.26631926342951</v>
+        <v>17.33298999787495</v>
       </c>
       <c r="O23">
-        <v>15.19704264047211</v>
+        <v>20.26432322794069</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.88605882484215</v>
+        <v>10.50134394730413</v>
       </c>
       <c r="C24">
-        <v>9.364533369300249</v>
+        <v>6.662328735492</v>
       </c>
       <c r="D24">
-        <v>8.704634512842697</v>
+        <v>6.395509940878433</v>
       </c>
       <c r="E24">
-        <v>36.36541629571342</v>
+        <v>19.64077616600321</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.39910168810089</v>
+        <v>26.62201067238685</v>
       </c>
       <c r="H24">
-        <v>8.530512055677415</v>
+        <v>13.48930596955053</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.85332707703694</v>
+        <v>9.452725162967814</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.63312085682271</v>
+        <v>17.42600704562835</v>
       </c>
       <c r="O24">
-        <v>14.75291643516955</v>
+        <v>20.29404371087663</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31994897200553</v>
+        <v>9.872824925714733</v>
       </c>
       <c r="C25">
-        <v>8.694222014685849</v>
+        <v>6.366813442146914</v>
       </c>
       <c r="D25">
-        <v>7.854636933439184</v>
+        <v>6.153880896025936</v>
       </c>
       <c r="E25">
-        <v>32.5955134574643</v>
+        <v>17.80024299104303</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.81574270117286</v>
+        <v>26.46427196069235</v>
       </c>
       <c r="H25">
-        <v>8.485280463464312</v>
+        <v>13.54826358349575</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.60290336066049</v>
+        <v>8.886486882389672</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.0337766347883</v>
+        <v>17.53249881378627</v>
       </c>
       <c r="O25">
-        <v>14.33445135724537</v>
+        <v>20.34503948469115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.387601030044342</v>
+        <v>14.06553618770191</v>
       </c>
       <c r="C2">
-        <v>6.137134154901638</v>
+        <v>8.168470830655821</v>
       </c>
       <c r="D2">
-        <v>5.975149884727422</v>
+        <v>7.175007026510022</v>
       </c>
       <c r="E2">
-        <v>16.49042890569262</v>
+        <v>29.62873963525741</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.37899438348488</v>
+        <v>22.70115921872339</v>
       </c>
       <c r="H2">
-        <v>13.59947067343654</v>
+        <v>8.476531720622695</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.534746551802261</v>
+        <v>12.60878055623549</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.61626620208107</v>
+        <v>11.33474696360416</v>
       </c>
       <c r="O2">
-        <v>20.39876267414844</v>
+        <v>14.07527729653165</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.046875586347332</v>
+        <v>13.15126570553675</v>
       </c>
       <c r="C3">
-        <v>5.974529650032757</v>
+        <v>7.792711109126631</v>
       </c>
       <c r="D3">
-        <v>5.854373674938505</v>
+        <v>6.680123338307856</v>
       </c>
       <c r="E3">
-        <v>15.55648342679545</v>
+        <v>27.49215851329685</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.34056623700892</v>
+        <v>21.98026579070834</v>
       </c>
       <c r="H3">
-        <v>13.63902358627923</v>
+        <v>8.484527709176405</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.290465960405923</v>
+        <v>11.88937286174932</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.6764094635205</v>
+        <v>11.54318351825618</v>
       </c>
       <c r="O3">
-        <v>20.44519499119439</v>
+        <v>13.92837796871568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.832643403211399</v>
+        <v>12.558004190209</v>
       </c>
       <c r="C4">
-        <v>5.871489701444482</v>
+        <v>7.552723370727348</v>
       </c>
       <c r="D4">
-        <v>5.780693619828576</v>
+        <v>6.35911189448953</v>
       </c>
       <c r="E4">
-        <v>14.95817113337863</v>
+        <v>26.11610189766378</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.32653548527147</v>
+        <v>21.55553722513144</v>
       </c>
       <c r="H4">
-        <v>13.66569628805197</v>
+        <v>8.495853650144339</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.13815724101206</v>
+        <v>11.42530774236183</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.7150116354277</v>
+        <v>11.67359004991796</v>
       </c>
       <c r="O4">
-        <v>20.47862416110296</v>
+        <v>13.85170081669848</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.744219215591205</v>
+        <v>12.30819552324923</v>
       </c>
       <c r="C5">
-        <v>5.828732981768979</v>
+        <v>7.452658733830443</v>
       </c>
       <c r="D5">
-        <v>5.75083538619954</v>
+        <v>6.225422289958433</v>
       </c>
       <c r="E5">
-        <v>14.70837106189489</v>
+        <v>25.53892374006422</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.32322260302507</v>
+        <v>21.38709327514817</v>
       </c>
       <c r="H5">
-        <v>13.67716512111848</v>
+        <v>8.502016583512676</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.075603316382059</v>
+        <v>11.23062607677824</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.7311646316885</v>
+        <v>11.72737215342513</v>
       </c>
       <c r="O5">
-        <v>20.49348005485504</v>
+        <v>13.82374902476589</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.729473011169109</v>
+        <v>12.26622808938758</v>
       </c>
       <c r="C6">
-        <v>5.821588084152005</v>
+        <v>7.435908227417004</v>
       </c>
       <c r="D6">
-        <v>5.745888920126692</v>
+        <v>6.206101740349808</v>
       </c>
       <c r="E6">
-        <v>14.66653952453227</v>
+        <v>25.4420837793375</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.32281768034569</v>
+        <v>21.35940702089226</v>
       </c>
       <c r="H6">
-        <v>13.67910569742263</v>
+        <v>8.503131496097224</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.065189810899914</v>
+        <v>11.19796460648576</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.7338723702928</v>
+        <v>11.73634216493476</v>
       </c>
       <c r="O6">
-        <v>20.49602123173506</v>
+        <v>13.81930343577241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.831455233979636</v>
+        <v>12.55466780991983</v>
       </c>
       <c r="C7">
-        <v>5.870916123573141</v>
+        <v>7.551382952403361</v>
       </c>
       <c r="D7">
-        <v>5.780290202552083</v>
+        <v>6.357306707666542</v>
       </c>
       <c r="E7">
-        <v>14.95482607164587</v>
+        <v>26.1083847353704</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.32648107230253</v>
+        <v>21.55324658866046</v>
       </c>
       <c r="H7">
-        <v>13.66584853446636</v>
+        <v>8.495930585976751</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.137315456586187</v>
+        <v>11.42270467879082</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.71522776872179</v>
+        <v>11.67431274229996</v>
       </c>
       <c r="O7">
-        <v>20.4788195248665</v>
+        <v>13.85131065267261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.271242241606782</v>
+        <v>13.75689566824403</v>
       </c>
       <c r="C8">
-        <v>6.081753978112168</v>
+        <v>8.040866671137364</v>
       </c>
       <c r="D8">
-        <v>5.933435254004691</v>
+        <v>7.007910361613304</v>
       </c>
       <c r="E8">
-        <v>16.17371166815139</v>
+        <v>28.90519276658548</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.36375998841913</v>
+        <v>22.44896262063039</v>
       </c>
       <c r="H8">
-        <v>13.61261263854785</v>
+        <v>8.477916988371035</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.451055935566448</v>
+        <v>12.3653895669213</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.63665699288009</v>
+        <v>11.40613135979834</v>
       </c>
       <c r="O8">
-        <v>20.41374927134245</v>
+        <v>14.02175966310346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.08828167396873</v>
+        <v>15.86309019906738</v>
       </c>
       <c r="C9">
-        <v>6.468309155665016</v>
+        <v>8.925079574216593</v>
       </c>
       <c r="D9">
-        <v>6.235512026630915</v>
+        <v>8.149212567585455</v>
       </c>
       <c r="E9">
-        <v>18.44066520877717</v>
+        <v>33.89411709503092</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.51263334769786</v>
+        <v>24.3414452318098</v>
       </c>
       <c r="H9">
-        <v>13.52719060672823</v>
+        <v>8.496514798113582</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.048931511905135</v>
+        <v>14.03550666634499</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.49579869830934</v>
+        <v>10.89799286840189</v>
       </c>
       <c r="O9">
-        <v>20.32534071682669</v>
+        <v>14.46758781730711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.6544369669269</v>
+        <v>17.26011050411769</v>
       </c>
       <c r="C10">
-        <v>6.734098729559121</v>
+        <v>9.526618522599735</v>
       </c>
       <c r="D10">
-        <v>6.455897845087441</v>
+        <v>8.907944337817375</v>
       </c>
       <c r="E10">
-        <v>20.07755669194932</v>
+        <v>37.27794040331788</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.66785291661464</v>
+        <v>25.80718138733731</v>
       </c>
       <c r="H10">
-        <v>13.47604238890276</v>
+        <v>8.547266290793022</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.600766863175583</v>
+        <v>15.15326385907244</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.40027826761627</v>
+        <v>10.53325305899919</v>
       </c>
       <c r="O10">
-        <v>20.2844819668715</v>
+        <v>14.86855345633512</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.90346728911329</v>
+        <v>17.86372593728492</v>
       </c>
       <c r="C11">
-        <v>6.850729474976704</v>
+        <v>9.789635902684902</v>
       </c>
       <c r="D11">
-        <v>6.55529938777506</v>
+        <v>9.236295115587977</v>
       </c>
       <c r="E11">
-        <v>20.78000746192793</v>
+        <v>38.76124768671779</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.74828532983003</v>
+        <v>26.48906107416269</v>
       </c>
       <c r="H11">
-        <v>13.4553041698097</v>
+        <v>8.579338710188477</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.839937131234198</v>
+        <v>15.6381983763927</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.35853442758631</v>
+        <v>10.36864166963077</v>
       </c>
       <c r="O11">
-        <v>20.27116259530068</v>
+        <v>15.06793650432508</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.99646568254752</v>
+        <v>18.08777931515137</v>
       </c>
       <c r="C12">
-        <v>6.894255205835051</v>
+        <v>9.887701773785745</v>
       </c>
       <c r="D12">
-        <v>6.592776948309719</v>
+        <v>9.358260618051608</v>
       </c>
       <c r="E12">
-        <v>21.03997782133113</v>
+        <v>39.31534913502268</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.78013948943381</v>
+        <v>26.74936944062222</v>
       </c>
       <c r="H12">
-        <v>13.44781558584727</v>
+        <v>8.59285414916744</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.928768486639933</v>
+        <v>15.81847254866355</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.3429714212514</v>
+        <v>10.30644632333832</v>
       </c>
       <c r="O12">
-        <v>20.26687870789882</v>
+        <v>15.14595788836282</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.97649596553517</v>
+        <v>18.03972547695122</v>
       </c>
       <c r="C13">
-        <v>6.884909981869767</v>
+        <v>9.866649704107491</v>
       </c>
       <c r="D13">
-        <v>6.584713390519238</v>
+        <v>9.332098048184312</v>
       </c>
       <c r="E13">
-        <v>20.98425632962147</v>
+        <v>39.19634342449973</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.77321732082226</v>
+        <v>26.69321506619166</v>
       </c>
       <c r="H13">
-        <v>13.44941216128589</v>
+        <v>8.589881149497138</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.909714771982628</v>
+        <v>15.77979621463953</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.3463123397026</v>
+        <v>10.31983583424868</v>
       </c>
       <c r="O13">
-        <v>20.26776748998471</v>
+        <v>15.12904132331087</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.91114487513704</v>
+        <v>17.88224919739231</v>
       </c>
       <c r="C14">
-        <v>6.85432331778761</v>
+        <v>9.797734563699423</v>
       </c>
       <c r="D14">
-        <v>6.558386195238636</v>
+        <v>9.246376617145939</v>
       </c>
       <c r="E14">
-        <v>20.80151609290564</v>
+        <v>38.80698335559325</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.75087811292178</v>
+        <v>26.510435133072</v>
       </c>
       <c r="H14">
-        <v>13.45468076926255</v>
+        <v>8.580422716529927</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.84728031786754</v>
+        <v>15.6530968024745</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.35724915710647</v>
+        <v>10.36352232442917</v>
       </c>
       <c r="O14">
-        <v>20.27079491594441</v>
+        <v>15.07430444176176</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.87094344692001</v>
+        <v>17.78520344118566</v>
       </c>
       <c r="C15">
-        <v>6.835504093832909</v>
+        <v>9.755322397795165</v>
       </c>
       <c r="D15">
-        <v>6.542237540588395</v>
+        <v>9.193561909229969</v>
       </c>
       <c r="E15">
-        <v>20.68879778224404</v>
+        <v>38.56751444748721</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.73737599230311</v>
+        <v>26.3987482800303</v>
       </c>
       <c r="H15">
-        <v>13.45795543976603</v>
+        <v>8.574809957607146</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.808810332780874</v>
+        <v>15.57505309152983</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.36398007495749</v>
+        <v>10.39029818276547</v>
       </c>
       <c r="O15">
-        <v>20.27274832421904</v>
+        <v>15.04110688139873</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.63798386095073</v>
+        <v>17.22002631478842</v>
       </c>
       <c r="C16">
-        <v>6.72638838792023</v>
+        <v>9.509215254064957</v>
       </c>
       <c r="D16">
-        <v>6.44938099826297</v>
+        <v>8.886151325202498</v>
       </c>
       <c r="E16">
-        <v>20.03080393792604</v>
+        <v>37.17991391829695</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.66279279067518</v>
+        <v>25.76291564311079</v>
       </c>
       <c r="H16">
-        <v>13.47744864753702</v>
+        <v>8.545357741549502</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.584895008184899</v>
+        <v>15.12110047967313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.40304060530785</v>
+        <v>10.5440330831609</v>
       </c>
       <c r="O16">
-        <v>20.28545862925721</v>
+        <v>14.85587168577403</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.49282969190743</v>
+        <v>16.86518271818377</v>
       </c>
       <c r="C17">
-        <v>6.658335385580188</v>
+        <v>9.355508429389003</v>
       </c>
       <c r="D17">
-        <v>6.392168131441444</v>
+        <v>8.693291220157375</v>
       </c>
       <c r="E17">
-        <v>19.61636631829482</v>
+        <v>36.31463269647308</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.6195434394749</v>
+        <v>25.3766578156471</v>
       </c>
       <c r="H17">
-        <v>13.49005551629083</v>
+        <v>8.529646282755749</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.444467814059509</v>
+        <v>14.8366008504652</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.42743976535724</v>
+        <v>10.63864664633958</v>
       </c>
       <c r="O17">
-        <v>20.29460695536805</v>
+        <v>14.74664114553157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.40854329206466</v>
+        <v>16.65807966657793</v>
       </c>
       <c r="C18">
-        <v>6.618791716837282</v>
+        <v>9.266099902021486</v>
       </c>
       <c r="D18">
-        <v>6.359182815451395</v>
+        <v>8.580779248630991</v>
       </c>
       <c r="E18">
-        <v>19.37402069004431</v>
+        <v>35.81164371798125</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.5955932289918</v>
+        <v>25.15591750202041</v>
       </c>
       <c r="H18">
-        <v>13.49754468272275</v>
+        <v>8.521450437141647</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.362582760433996</v>
+        <v>14.67074645366899</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.44163443943886</v>
+        <v>10.69319241502347</v>
       </c>
       <c r="O18">
-        <v>20.30036451013368</v>
+        <v>14.68540862313585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.3798709687226</v>
+        <v>16.58743992823331</v>
       </c>
       <c r="C19">
-        <v>6.605334762182577</v>
+        <v>9.235656192847701</v>
       </c>
       <c r="D19">
-        <v>6.348002446486273</v>
+        <v>8.542411338884841</v>
       </c>
       <c r="E19">
-        <v>19.29128341282431</v>
+        <v>35.64041640038617</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.58764353437136</v>
+        <v>25.08142623451828</v>
       </c>
       <c r="H19">
-        <v>13.50012124230221</v>
+        <v>8.518817543921815</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.334667427266368</v>
+        <v>14.61420951530145</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.44646818921292</v>
+        <v>10.7116838314531</v>
       </c>
       <c r="O19">
-        <v>20.3023989729598</v>
+        <v>14.6649477180239</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.50836475243058</v>
+        <v>16.90326713141226</v>
       </c>
       <c r="C20">
-        <v>6.665621471312296</v>
+        <v>9.371974389812827</v>
       </c>
       <c r="D20">
-        <v>6.398266914565749</v>
+        <v>8.713985141655893</v>
       </c>
       <c r="E20">
-        <v>19.66089476621191</v>
+        <v>36.40728892735496</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.62405171207135</v>
+        <v>25.41762880334317</v>
       </c>
       <c r="H20">
-        <v>13.48868885248745</v>
+        <v>8.53123119554216</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.459532176786775</v>
+        <v>14.86711570072731</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.42482578733873</v>
+        <v>10.62856211448191</v>
       </c>
       <c r="O20">
-        <v>20.29358178072542</v>
+        <v>14.75810338348667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.93037604634622</v>
+        <v>17.92862600312177</v>
       </c>
       <c r="C21">
-        <v>6.863324910343989</v>
+        <v>9.818018214804077</v>
       </c>
       <c r="D21">
-        <v>6.5661238868044</v>
+        <v>9.271619158191678</v>
       </c>
       <c r="E21">
-        <v>20.8553547899133</v>
+        <v>38.92155006773542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.75740193220605</v>
+        <v>26.56406561729311</v>
       </c>
       <c r="H21">
-        <v>13.45312335186449</v>
+        <v>8.583163066195258</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.865666202170214</v>
+        <v>15.69040243273049</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.35403012356668</v>
+        <v>10.3506871735224</v>
       </c>
       <c r="O21">
-        <v>20.26988504759822</v>
+        <v>15.09031300793449</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.19855434678827</v>
+        <v>18.5724296179301</v>
       </c>
       <c r="C22">
-        <v>6.988796574896819</v>
+        <v>10.10060153996444</v>
       </c>
       <c r="D22">
-        <v>6.674856952235745</v>
+        <v>9.622249953687882</v>
       </c>
       <c r="E22">
-        <v>21.60085650105215</v>
+        <v>40.52074573901779</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.8526823480772</v>
+        <v>27.32553006039297</v>
       </c>
       <c r="H22">
-        <v>13.43200435055242</v>
+        <v>8.625128270754995</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.12096143296773</v>
+        <v>16.20890179260479</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.30918550468537</v>
+        <v>10.16986624191215</v>
       </c>
       <c r="O22">
-        <v>20.25882780811433</v>
+        <v>15.32215112948457</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.05614436491192</v>
+        <v>18.23120580123843</v>
       </c>
       <c r="C23">
-        <v>6.922179600218602</v>
+        <v>9.950598144096617</v>
       </c>
       <c r="D23">
-        <v>6.616925851153852</v>
+        <v>9.4363613323343</v>
       </c>
       <c r="E23">
-        <v>21.20617336672747</v>
+        <v>39.67108800648219</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.8010917457984</v>
+        <v>26.9180224972588</v>
       </c>
       <c r="H23">
-        <v>13.44308125230065</v>
+        <v>8.601970105417617</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.985642100297323</v>
+        <v>15.9339484289161</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.33298999787495</v>
+        <v>10.26631926342958</v>
       </c>
       <c r="O23">
-        <v>20.26432322794069</v>
+        <v>15.19704264047214</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.50134394730413</v>
+        <v>16.88605882484221</v>
       </c>
       <c r="C24">
-        <v>6.662328735492</v>
+        <v>9.364533369300235</v>
       </c>
       <c r="D24">
-        <v>6.395509940878433</v>
+        <v>8.704634512842704</v>
       </c>
       <c r="E24">
-        <v>19.64077616600321</v>
+        <v>36.36541629571337</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.62201067238685</v>
+        <v>25.39910168810092</v>
       </c>
       <c r="H24">
-        <v>13.48930596955053</v>
+        <v>8.530512055677422</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.452725162967814</v>
+        <v>14.85332707703698</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.42600704562835</v>
+        <v>10.63312085682271</v>
       </c>
       <c r="O24">
-        <v>20.29404371087663</v>
+        <v>14.75291643516955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.872824925714733</v>
+        <v>15.31994897200552</v>
       </c>
       <c r="C25">
-        <v>6.366813442146914</v>
+        <v>8.694222014685677</v>
       </c>
       <c r="D25">
-        <v>6.153880896025936</v>
+        <v>7.854636933439217</v>
       </c>
       <c r="E25">
-        <v>17.80024299104303</v>
+        <v>32.59551345746435</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.46427196069235</v>
+        <v>23.81574270117283</v>
       </c>
       <c r="H25">
-        <v>13.54826358349575</v>
+        <v>8.485280463464358</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.886486882389672</v>
+        <v>13.60290336066044</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.53249881378627</v>
+        <v>11.0337766347883</v>
       </c>
       <c r="O25">
-        <v>20.34503948469115</v>
+        <v>14.3344513572454</v>
       </c>
     </row>
   </sheetData>
